--- a/Instances/K0014313_b2_fe25_en_rk50_ll0_l20_NonStationary.xlsx
+++ b/Instances/K0014313_b2_fe25_en_rk50_ll0_l20_NonStationary.xlsx
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -980,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>66.66666666666667</v>
+        <v>57.14285714285715</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="n">
@@ -1256,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1476,33 +1476,68 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>156</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1517,7 +1552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,34 +1632,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1632,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1667,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.8125</v>
+        <v>5.75</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1702,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.03125</v>
+        <v>20.8125</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1737,33 +1772,68 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>19.03125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>36.5625</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
